--- a/medicine/Sexualité et sexologie/Trafic_d'innocence/Trafic_d'innocence.xlsx
+++ b/medicine/Sexualité et sexologie/Trafic_d'innocence/Trafic_d'innocence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Trafic_d%27innocence</t>
+          <t>Trafic_d'innocence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Trafic d'innocence en France, ou Trafic humain au Québec (Human Trafficking) est une minisérie canado-américaine totalisant 176 minutes réalisée par Christian Duguay, diffusée les 24 et 25 octobre 2005[1] sur Lifetime, ainsi que les 2 et 3 janvier 2006 sur Citytv.
+Trafic d'innocence en France, ou Trafic humain au Québec (Human Trafficking) est une minisérie canado-américaine totalisant 176 minutes réalisée par Christian Duguay, diffusée les 24 et 25 octobre 2005 sur Lifetime, ainsi que les 2 et 3 janvier 2006 sur Citytv.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trafic_d%27innocence</t>
+          <t>Trafic_d'innocence</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sergei Karpovich règne sur un réseau de prostitution qui kidnappe des jeunes femmes aux quatre coins de la planète. Certaines pensent qu'elles quittent leur pays pour devenir mannequins mais se retrouvent séquestrées et abusées. À New York, Kate Morozov mène l'enquête pour mettre un terme à ce trafic, aidée de Bill Meehan, agent américain de l'immigration et des douanes. Pendant ce temps, des petites filles, dont une américaine, sont enlevées à Manille...
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Trafic_d%27innocence</t>
+          <t>Trafic_d'innocence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : Trafic d'innocence
 Titre québécois : Trafic humain
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Trafic_d%27innocence</t>
+          <t>Trafic_d'innocence</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mira Sorvino : Kate Morozov
 Donald Sutherland (VF : Bernard Tiphaine ; VQ : Guy Nadon) : Agent Bill Meehan
@@ -617,7 +635,7 @@
 Manuel Tadros : Miguel
 Vlasta Vrána (en) (VF : Jacques Frantz) : Tommy
 Richard Zeman : Walter
-'Source et légende : Version québécoise (VQ) sur Doublage Québec[2]</t>
+'Source et légende : Version québécoise (VQ) sur Doublage Québec</t>
         </is>
       </c>
     </row>
@@ -627,7 +645,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Trafic_d%27innocence</t>
+          <t>Trafic_d'innocence</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -645,9 +663,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La série a été vue en moyenne par environ 5,5 millions de téléspectateurs lors de sa première diffusion américaine, soit 5,1 millions pour la première partie, et 5,8 millions pour la deuxième[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série a été vue en moyenne par environ 5,5 millions de téléspectateurs lors de sa première diffusion américaine, soit 5,1 millions pour la première partie, et 5,8 millions pour la deuxième.
 </t>
         </is>
       </c>
